--- a/data/income_statement/1digit/size/R_IS_LARGE.xlsx
+++ b/data/income_statement/1digit/size/R_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>R-Arts, entertainment and recreation</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>R-Arts, entertainment and recreation</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,275 +841,310 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>574398.51609</v>
+        <v>463295.2086599999</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>500965.64926</v>
+        <v>337832.72293</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>784853.3402199999</v>
+        <v>581564.94739</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>911546.40356</v>
+        <v>718025.06191</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1077210.47333</v>
+        <v>780806.0533199999</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>2513021.03632</v>
+        <v>2245642.45146</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>3129534.479830001</v>
+        <v>3063041.07873</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>2275420.74899</v>
+        <v>2089352.10723</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>3161927.81939</v>
+        <v>2787858.53777</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>2894964.37849</v>
+        <v>2579016.31898</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>3237626.8303</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2881538.95218</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>3466966.626</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>476871.0437900001</v>
+        <v>388233.83808</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>481705.31958</v>
+        <v>335823.49983</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>746156.7390300001</v>
+        <v>561023.16937</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>867242.3431000001</v>
+        <v>695368.15186</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1046377.18947</v>
+        <v>753046.11496</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>2479548.15252</v>
+        <v>2214606.33651</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3078613.9212</v>
+        <v>3019564.45456</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>2210245.77282</v>
+        <v>2028618.96031</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>3076500.94237</v>
+        <v>2716799.19689</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>2838984.54541</v>
+        <v>2550075.31765</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>3171772.481480001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2825741.34171</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>3269709.183</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>18624.27374</v>
+        <v>337.58438</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>14854.26176</v>
+        <v>1282.47289</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>24805.65045</v>
+        <v>8110.51293</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>28856.57788</v>
+        <v>8726.693739999999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>10728.62376</v>
+        <v>9927.10406</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>22092.22805</v>
+        <v>20000.96479</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>30527.82431</v>
+        <v>26829.33722</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>32054.19609</v>
+        <v>28315.5115</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>45815.78129</v>
+        <v>39962.83264</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>16511.21606</v>
+        <v>6279.623570000001</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>9643.170880000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>9187.74567</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>20747.95</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>78903.19856000002</v>
+        <v>74723.7862</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>4406.06792</v>
+        <v>726.7502099999999</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>13890.95074</v>
+        <v>12431.26509</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>15447.48258</v>
+        <v>13930.21631</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>20104.6601</v>
+        <v>17832.8343</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>11380.65575</v>
+        <v>11035.15016</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>20392.73432</v>
+        <v>16647.28695</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>33120.78008</v>
+        <v>32417.63542</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>39611.09572999999</v>
+        <v>31096.50824</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>39468.61702</v>
+        <v>22661.37776</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>56211.17793999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>46609.8648</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>176509.493</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>2506.19961</v>
+        <v>2120.06248</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>2683.45701</v>
+        <v>1695.55244</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1893.21318</v>
+        <v>1480.72487</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>3130.54013</v>
+        <v>1198.44704</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>4125.65443</v>
+        <v>2186.26214</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>12280.89669</v>
+        <v>10794.43641</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>13752.8713</v>
+        <v>12109.39765</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>29441.4247</v>
+        <v>25268.08431</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>34483.34961</v>
+        <v>30815.91276</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>72041.62822</v>
+        <v>65731.93542000001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>86767.61697</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>80224.87136</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>60279.916</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>2434.16472</v>
+        <v>2048.02759</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>2683.22072</v>
+        <v>1695.41784</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1870.82642</v>
+        <v>1480.67467</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>3100.72266</v>
+        <v>1179.46734</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>3395.94452</v>
+        <v>2089.13452</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>11590.91927</v>
+        <v>10213.80651</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>11332.83966</v>
+        <v>9917.238529999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>24895.78808</v>
+        <v>20723.98506</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>21710.75356</v>
+        <v>18180.15106</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>57918.40518</v>
+        <v>51608.71238</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>71321.87175000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>64779.12614</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>51584.942</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>72.03489</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>0.23629</v>
+        <v>0.1346</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>22.38676</v>
+        <v>0.0502</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>23.15416</v>
+        <v>18.9797</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>728.8599100000001</v>
+        <v>97.12761999999999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>689.9774200000001</v>
+        <v>580.6299</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>2286.20878</v>
+        <v>2058.33626</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>4545.382379999999</v>
+        <v>4544.09925</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>12772.59605</v>
+        <v>12635.7617</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>14123.22304</v>
@@ -1216,11 +1152,16 @@
       <c r="M11" s="48" t="n">
         <v>15445.74522</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>7211.376</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>0</v>
@@ -1232,10 +1173,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>6.66331</v>
+        <v>0</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>0.85</v>
+        <v>0</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>0</v>
@@ -1244,7 +1185,7 @@
         <v>133.82286</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>0.25424</v>
+        <v>0</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>0</v>
@@ -1255,221 +1196,251 @@
       <c r="M12" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>1483.598</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>571892.31648</v>
+        <v>461175.1461799999</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>498282.1922500001</v>
+        <v>336137.17049</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>782960.1270399999</v>
+        <v>580084.22252</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>908415.86343</v>
+        <v>716826.6148700002</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1073084.8189</v>
+        <v>778619.7911800001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>2500740.13963</v>
+        <v>2234848.01505</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>3115781.60853</v>
+        <v>3050931.68108</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>2245979.32429</v>
+        <v>2064084.02292</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>3127444.46978</v>
+        <v>2757042.62501</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>2822922.75027</v>
+        <v>2513284.38356</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>3150859.21333</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>2801314.08082</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>3406686.71</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>424620.88196</v>
+        <v>329732.50181</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>389783.05619</v>
+        <v>245849.51821</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>450262.55399</v>
+        <v>349267.0885</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>508581.38971</v>
+        <v>394360.26422</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>670392.82563</v>
+        <v>518277.4574400001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>1794895.74285</v>
+        <v>1655627.33426</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>2352338.26965</v>
+        <v>2389195.41037</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>1435890.76053</v>
+        <v>1258335.54538</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>1786778.51011</v>
+        <v>1545242.36324</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>1697274.60875</v>
+        <v>1513007.19109</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>2090651.27242</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>1944702.64756</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>2178892.289</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>1817.84014</v>
+        <v>768.7726</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>2760.14671</v>
+        <v>2191.63193</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>3083.06053</v>
+        <v>567.85837</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>312.86642</v>
+        <v>248.11816</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>16383.68128</v>
+        <v>5361.040400000001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>4984.41151</v>
+        <v>3545.03444</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>576.0044300000001</v>
+        <v>143.28873</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>2135.33584</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>308.1494</v>
+        <v>0</v>
       </c>
       <c r="M15" s="48" t="n">
         <v>2691.76313</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="48" t="n">
+        <v>93105.908</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>35119.81914</v>
+        <v>32166.77064</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>15427.42948</v>
+        <v>10648.16932</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>15620.45015</v>
+        <v>8692.849540000001</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>9542.57782</v>
+        <v>2596.26045</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>21902.83969</v>
+        <v>3599.210770000001</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>23465.00597</v>
+        <v>17383.32489</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>68135.42838</v>
+        <v>52994.00937</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>152273.13903</v>
+        <v>142294.13931</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>127995.89522</v>
+        <v>111448.69974</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>93497.94461000001</v>
+        <v>43513.19831</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>202046.3737</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>199106.87063</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>150645.649</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>389501.06282</v>
+        <v>297565.73117</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>372131.34872</v>
+        <v>234432.57629</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>431871.72827</v>
+        <v>338377.60113</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>495856.89623</v>
+        <v>391099.83043</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>636600.0367300001</v>
+        <v>514430.12851</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>1755034.9806</v>
+        <v>1632870.89397</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>2279218.42976</v>
+        <v>2332656.36656</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>1282155.14119</v>
+        <v>1115011.64146</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>1656289.64884</v>
+        <v>1431300.69745</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1603321.11007</v>
+        <v>1469493.99278</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1885793.23124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1742784.10945</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>1934989.865</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>406.43785</v>
+        <v>0</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>10.22886</v>
+        <v>5.0059</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>98.85513</v>
+        <v>96.31497</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>11577.08279</v>
+        <v>0</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>12.075</v>
@@ -1484,94 +1455,109 @@
         <v>357.63021</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>147.40467</v>
+        <v>0</v>
       </c>
       <c r="M18" s="48" t="n">
         <v>119.90435</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>150.867</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>147271.43452</v>
+        <v>131442.64437</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>108499.13606</v>
+        <v>90287.65227999999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>332697.57305</v>
+        <v>230817.13402</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>399834.47372</v>
+        <v>322466.35065</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>402691.99327</v>
+        <v>260342.33374</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>705844.39678</v>
+        <v>579220.68079</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>763443.3388799999</v>
+        <v>661736.2707100001</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>810088.56376</v>
+        <v>805748.47754</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1340665.95967</v>
+        <v>1211800.26177</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1125648.14152</v>
+        <v>1000277.19247</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1060207.94091</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>856611.43326</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1227794.421</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>181057.4398</v>
+        <v>76003.37058</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>187962.95709</v>
+        <v>55689.72378</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>307743.87098</v>
+        <v>106129.37898</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>388015.76105</v>
+        <v>260520.49177</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>429619.86022</v>
+        <v>276924.61132</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>527163.3810299999</v>
+        <v>409704.02229</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>712743.4809099999</v>
+        <v>535838.50592</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>610808.39436</v>
+        <v>698889.61847</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1136560.29615</v>
+        <v>962406.2446100001</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>910389.51099</v>
+        <v>697916.2819299999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>742459.3320599999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>509665.41789</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>600260.964</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1589,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>27.4922</v>
+        <v>0</v>
       </c>
       <c r="I21" s="48" t="n">
         <v>0</v>
@@ -1598,235 +1584,265 @@
         <v>752.2508800000001</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>224345.54096</v>
+        <v>222368.14504</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>348875.01615</v>
+        <v>333749.5096400001</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>16602.15901</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>2076.03652</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>516.107</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>21158.45696</v>
+        <v>18289.00608</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>20001.32417</v>
+        <v>16739.39621</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>29418.89023</v>
+        <v>26107.61708</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>53516.56724999999</v>
+        <v>47962.68572000001</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>63304.20773</v>
+        <v>55291.42309</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>115099.50941</v>
+        <v>108148.61228</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>145333.97803</v>
+        <v>133451.00827</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>191126.24333</v>
+        <v>179650.20658</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>226959.62914</v>
+        <v>215983.42193</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>103716.95851</v>
+        <v>99268.56625</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>137019.77272</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>128135.73604</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>299281.552</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>159898.98284</v>
+        <v>57714.3645</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>167961.63292</v>
+        <v>38950.32757</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>257817.40931</v>
+        <v>59514.19045999999</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>334499.1937999999</v>
+        <v>212557.80605</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>366315.65249</v>
+        <v>221633.18823</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>412036.37942</v>
+        <v>301555.41001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>567409.50288</v>
+        <v>402387.49765</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>418929.90015</v>
+        <v>518487.16101</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>685255.12605</v>
+        <v>524054.67764</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>457797.53633</v>
+        <v>264898.20604</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>588837.4003300001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>379453.64533</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>300463.305</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>-33786.00528</v>
+        <v>55439.27379</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>-79463.82103000001</v>
+        <v>34597.9285</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>24953.70207000001</v>
+        <v>124687.75504</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>11818.71266999999</v>
+        <v>61945.85888</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-26927.86695000001</v>
+        <v>-16582.27758</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>178681.01575</v>
+        <v>169516.6585</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>50699.85796999998</v>
+        <v>125897.76479</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>199280.1694</v>
+        <v>106858.85907</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>204105.66352</v>
+        <v>249394.01716</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>215258.63053</v>
+        <v>302360.91054</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>317748.60885</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>346946.01537</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>627533.4570000001</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>165793.10481</v>
+        <v>44068.46464</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>159129.10594</v>
+        <v>38896.20213</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>141594.06803</v>
+        <v>47824.95292</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>150534.24356</v>
+        <v>54035.81112999999</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>206910.11165</v>
+        <v>48882.71569</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>147066.79127</v>
+        <v>95275.10970999999</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>193864.49266</v>
+        <v>137496.0592</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>214471.20325</v>
+        <v>123376.95125</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>456511.4409599999</v>
+        <v>259801.08914</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>1022326.22381</v>
+        <v>541517.52211</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>719605.29131</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>413578.42266</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>290321.451</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>2688.25018</v>
+        <v>0</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>2544.53714</v>
+        <v>0</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>2846.97757</v>
+        <v>0</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>4258.02138</v>
+        <v>0</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>7294.851559999999</v>
+        <v>1.8936</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>4826.01447</v>
+        <v>0</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>6017.33097</v>
+        <v>0</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>7240.235110000001</v>
+        <v>0</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>5431.47525</v>
+        <v>195.12793</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>2866.18688</v>
+        <v>0</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>8732.32055</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>9.11914</v>
+        <v>0</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>136.67628</v>
+        <v>0</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>43.32906</v>
+        <v>0</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>19559.78086</v>
+        <v>0</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>10550.69541</v>
+        <v>7658.575610000001</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>8019.12386</v>
+        <v>7514.718049999999</v>
       </c>
       <c r="J27" s="48" t="n">
         <v>4141.1956</v>
@@ -1840,230 +1856,260 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>22811.00982</v>
+        <v>17766.8832</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>18074.82182</v>
+        <v>12156.4247</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>35959.15889999999</v>
+        <v>26128.48501</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>26415.7184</v>
+        <v>17991.46999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>30003.52468</v>
+        <v>18510.76161</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>42708.16753</v>
+        <v>34544.27356</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>49232.37475</v>
+        <v>38235.31318</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>44027.07645</v>
+        <v>28639.39159</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>59940.8452</v>
+        <v>34345.92932</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>76742.3965</v>
+        <v>52799.12631</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>132897.69004</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>51740.57831</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>45236.818</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>1.01419</v>
+        <v>0</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>17.98376</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>298.07194</v>
+        <v>0</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>55.4207</v>
+        <v>0</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>212.0872</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>2163.71723</v>
+        <v>481.66825</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>1626.51397</v>
+        <v>753.80166</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>3208.70907</v>
+        <v>3192.214</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>30722.29383</v>
+        <v>3.81247</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>41229.61939</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>65060.15378</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>64970.82318</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>26135.79954</v>
+        <v>213.19779</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>26030.70549</v>
+        <v>0.65</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>25896.63733</v>
+        <v>77.673</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>28278.20746</v>
+        <v>2416.74805</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>642.6540200000001</v>
+        <v>51.191</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>15841.60251</v>
+        <v>13358.54639</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>4717.33682</v>
+        <v>3193.47047</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1710.78337</v>
+        <v>430.73546</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>9651.85867</v>
+        <v>6925.90525</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>5695.94809</v>
+        <v>4749.967320000001</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>13373.41875</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>9300.482189999999</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>2697.784</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>90.16536000000001</v>
+        <v>69.11108999999999</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>127.72907</v>
+        <v>111.36555</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>8918.593150000001</v>
+        <v>502.80024</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>2637.74193</v>
+        <v>98.88107000000001</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>31221.10768</v>
+        <v>126.68003</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>7720.678440000001</v>
+        <v>252.15334</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>5897.60332</v>
+        <v>2156.2644</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>4643.95813</v>
+        <v>4154.39875</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>40409.69814</v>
+        <v>39649.10305</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>13472.0025</v>
+        <v>53.11506</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>29.61215</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>4.424630000000001</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>95563.45842</v>
+        <v>22378.14286</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>64375.44121</v>
+        <v>21643.68215</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>35752.02727</v>
+        <v>14045.01649</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>57322.86122999999</v>
+        <v>26952.643</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>72312.41443</v>
+        <v>21977.02848</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>57211.64282</v>
+        <v>38797.94767</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>92112.58614999999</v>
+        <v>63179.42628</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>112625.55149</v>
+        <v>80072.65867</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>239300.67361</v>
+        <v>117309.13834</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>727682.0991600001</v>
+        <v>391846.58365</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>375395.0615499999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>189233.92496</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>131884.297</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>138.22685</v>
+        <v>114.116</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>35.60355000000001</v>
+        <v>30.927</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>9.719040000000001</v>
+        <v>0</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>144.1874</v>
+        <v>128.181</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>38.021</v>
+        <v>29.466</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>545.13264</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>185.822</v>
+        <v>256.74637</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>206.732</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>2151.342</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>91.17400000000001</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,167 +2164,192 @@
       <c r="M34" s="48" t="n">
         <v>1.16525</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>18365.18045</v>
+        <v>3527.0137</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>47913.16476</v>
+        <v>4953.152730000001</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>31776.20655</v>
+        <v>7070.97818</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>31522.9434</v>
+        <v>6576.06902</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>45519.50381999999</v>
+        <v>8086.979969999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>6006.251859999999</v>
+        <v>152.4788899999997</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>25696.49018</v>
+        <v>21917.93252</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>36687.87203</v>
+        <v>2489.610809999999</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>57984.96457</v>
+        <v>48302.44109</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>128555.44499</v>
+        <v>24756.58408</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>121964.52724</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>96175.68214000002</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>110411.378</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>56609.07536</v>
+        <v>18937.01994</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>48417.54083</v>
+        <v>15381.49519</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>55269.50125</v>
+        <v>16339.54466</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>60475.84301</v>
+        <v>22977.91606</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>106074.68978</v>
+        <v>28440.96236</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>84085.35098</v>
+        <v>47270.80758</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>142561.06161</v>
+        <v>72950.49095000001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>153752.75422</v>
+        <v>160111.92944</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>352333.17782</v>
+        <v>227130.62843</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>803151.58508</v>
+        <v>510781.8220400001</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>358624.33268</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>220930.44206</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>259368.658</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>1133.34141</v>
+        <v>64.533</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>340.40176</v>
+        <v>0</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>96.45929000000001</v>
+        <v>1.4</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>420.31871</v>
+        <v>0</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>817.664</v>
+        <v>30.84746</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>2192.25726</v>
+        <v>2157.77337</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>1845.97463</v>
+        <v>1801.98664</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1407.57173</v>
+        <v>1370.35483</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>3956.11127</v>
+        <v>3532.46275</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>4702.67085</v>
+        <v>3614.08392</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>9934.735440000002</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>6954.84071</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>480.454</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>2085.97045</v>
+        <v>949.124</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>853.7730799999999</v>
+        <v>143.33075</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>11413.70738</v>
+        <v>249.27988</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>3592.83589</v>
+        <v>1980.24328</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>3319.88106</v>
+        <v>1188.097</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>20910.13516</v>
+        <v>15808.5731</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>5281.05486</v>
+        <v>1637.54943</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>5329.851279999999</v>
+        <v>8312.29393</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>13769.45049</v>
+        <v>6340.078</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>33998.7692</v>
+        <v>29578.95815</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>20982.83085</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>15758.80767</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>3559.266</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0.28283</v>
@@ -2285,10 +2361,10 @@
         <v>0</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>0.14738</v>
+        <v>0.05988</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>0.22847</v>
+        <v>0.21972</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>0.06737</v>
@@ -2303,61 +2379,71 @@
         <v>365.40908</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>100.38796</v>
+        <v>0</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>44038.16079</v>
+        <v>17011.62678</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>39507.49476000001</v>
+        <v>14962.94426</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>34454.82696</v>
+        <v>14312.65864</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>47063.14027</v>
+        <v>19894.7285</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>99509.90895000001</v>
+        <v>24974.81578</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>53965.26970999999</v>
+        <v>22224.74784</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>103933.1473</v>
+        <v>65720.07389</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>137115.91147</v>
+        <v>136144.15661</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>310427.19639</v>
+        <v>193497.32749</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>738438.85228</v>
+        <v>458741.96298</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>284458.21386</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>163922.35188</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>235281.48</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>65.26255</v>
+        <v>60.586</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>9.719040000000001</v>
+        <v>0</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>0</v>
@@ -2366,7 +2452,7 @@
         <v>288.7</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>155.438</v>
+        <v>140.52</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>30.79369</v>
@@ -2375,7 +2461,7 @@
         <v>53.97901</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>366.82354</v>
+        <v>418.21796</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>305.51534</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>1471.412</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>169.044</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2414,7 +2505,7 @@
         <v>0.342</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>771.1864399999999</v>
+        <v>0</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>0</v>
@@ -2425,257 +2516,292 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>9286.05733</v>
+        <v>850.8673299999999</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>7706.15219</v>
+        <v>275.22018</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>9304.507619999998</v>
+        <v>1776.20614</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>9110.70076</v>
+        <v>814.1843999999999</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2271.5693</v>
+        <v>2106.4624</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>6986.82779</v>
+        <v>7048.85221</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>30739.85567</v>
+        <v>3029.85184</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1980.13738</v>
+        <v>7085.63373</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>23509.49525</v>
+        <v>23089.83577</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>23671.7109</v>
+        <v>16607.6231</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>41777.14053</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>32823.0298</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>19878.414</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>87112.09187999999</v>
+        <v>8151.639220000001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>65327.75931</v>
+        <v>5539.78523</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>97543.64379999999</v>
+        <v>15085.24543</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>41677.71228</v>
+        <v>17729.40083</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>163399.73684</v>
+        <v>25066.31831</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>133324.88677</v>
+        <v>72343.77919</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>238980.8158</v>
+        <v>101088.8085</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>230705.39488</v>
+        <v>115301.38914</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>288392.1776</v>
+        <v>172608.67946</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>586731.13613</v>
+        <v>232996.12149</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>587113.2760999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>291540.67371</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>266479.595</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>38761.01935</v>
+        <v>5469.37848</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>20809.84194</v>
+        <v>4326.07146</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>33244.03568</v>
+        <v>11018.70653</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>34486.05497</v>
+        <v>16073.12425</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>69410.81134</v>
+        <v>23733.35242</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>78448.61062000001</v>
+        <v>52678.7075</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>110812.23933</v>
+        <v>67840.70864</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>117595.38743</v>
+        <v>97959.66856999999</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>232046.91974</v>
+        <v>155971.16211</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>340831.66792</v>
+        <v>210842.14613</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>382133.2653499999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>266848.83969</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>233001.552</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>48351.07253</v>
+        <v>2682.26074</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>44517.91737</v>
+        <v>1213.71377</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>64299.60812</v>
+        <v>4066.5389</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>7191.657310000001</v>
+        <v>1656.27658</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>93988.9255</v>
+        <v>1332.96589</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>54876.27615000001</v>
+        <v>19665.07169</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>128168.57647</v>
+        <v>33248.09986</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>113110.00745</v>
+        <v>17341.72057</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>56345.25786</v>
+        <v>16637.51735</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>245899.46821</v>
+        <v>22153.97536</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>204980.01075</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>24691.83402</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>33478.043</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>-11714.06771</v>
+        <v>72419.07927000002</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-34080.01523</v>
+        <v>52572.85021</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>13734.62505</v>
+        <v>141087.91787</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>60199.40094</v>
+        <v>75274.35312</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-89492.18192000002</v>
+        <v>-21206.84256</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>108337.56927</v>
+        <v>145177.18144</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>-136977.52678</v>
+        <v>89354.52453999998</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>29293.22354999998</v>
+        <v>-45177.50826000002</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>19891.74905999997</v>
+        <v>109455.79841</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-152297.86687</v>
+        <v>100100.48912</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>91616.29137999998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>248053.32226</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>392006.655</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>60259.35545</v>
+        <v>9166.24648</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>23230.73772</v>
+        <v>2349.12031</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>28161.47018</v>
+        <v>2713.79945</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>27430.58371</v>
+        <v>21733.65478</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>30701.5916</v>
+        <v>25184.62707</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>34901.83955</v>
+        <v>28700.69092</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>124119.04059</v>
+        <v>76891.69043999999</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>197305.32843</v>
+        <v>115247.42685</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>76245.49181000001</v>
+        <v>56907.04596</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>198144.82387</v>
+        <v>182404.34845</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>1619064.88427</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>82772.14793000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>23577.363</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>42508.6709</v>
+        <v>13.90197</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>292.57884</v>
+        <v>265.07931</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>31.34638</v>
+        <v>5.94581</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>635.04674</v>
+        <v>163.58163</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>46.92258</v>
@@ -2687,106 +2813,121 @@
         <v>5250.98459</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>3334.16349</v>
+        <v>3314.2731</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>1830.00844</v>
+        <v>1808.11893</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>1595.93743</v>
+        <v>1280.16624</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>4018.58584</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1737.44784</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1482.948</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>17750.68455</v>
+        <v>9152.344509999999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>22938.15888</v>
+        <v>2084.041</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>28130.1238</v>
+        <v>2707.85364</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>26795.53697</v>
+        <v>21570.07315</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>30654.66902</v>
+        <v>25137.70449000001</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>34847.36915000001</v>
+        <v>28646.22052</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>118868.056</v>
+        <v>71640.70585</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>193971.16494</v>
+        <v>111933.15375</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>74415.48337</v>
+        <v>55098.92703</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>196548.88644</v>
+        <v>181124.18221</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>1615046.29843</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>81034.70009</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>22094.415</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>66361.79011</v>
+        <v>800.1785900000001</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>11057.95955</v>
+        <v>1217.66483</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>16678.7037</v>
+        <v>3598.44751</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>15206.56582</v>
+        <v>11332.81899</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>7815.1109</v>
+        <v>4060.58966</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>34559.28506</v>
+        <v>22701.86433</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>28195.97751</v>
+        <v>16190.41694</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>45564.64578</v>
+        <v>45635.77598000001</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>57248.52909999999</v>
+        <v>47745.25208</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>44407.20243</v>
+        <v>32307.03352</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>45302.86405</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>33021.32671</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>29523.535</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>652.55711</v>
+        <v>0</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>0</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>57388.73144999999</v>
+        <v>118.74264</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1576.49881</v>
+        <v>512.50294</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1172.6608</v>
+        <v>1012.47884</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>1624.97762</v>
+        <v>1469.51071</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>565.5575799999999</v>
+        <v>299.96512</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>2356.48821</v>
+        <v>2251.53157</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1807.41569</v>
+        <v>1082.69295</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>7233.47274</v>
+        <v>5390.806509999999</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>6728.62084</v>
+        <v>6367.20734</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>5074.03609</v>
+        <v>2877.60595</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>6764.838999999999</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>4650.76975</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>1516.866</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>8973.058660000001</v>
+        <v>681.4359499999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>8828.903630000001</v>
+        <v>705.16189</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>15506.0429</v>
+        <v>2585.96867</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>13581.5882</v>
+        <v>9863.308280000001</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>7249.43954</v>
+        <v>3760.51076</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>30079.46013</v>
+        <v>18326.99604</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>26388.56182</v>
+        <v>15107.72399</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>35773.4203</v>
+        <v>37687.21673000001</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>50519.90826</v>
+        <v>41378.04474</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>39333.16634</v>
+        <v>29429.42757</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>38538.02505</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>28370.55696</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>28006.669</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-17816.50237</v>
+        <v>80785.14715999999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-21907.23706</v>
+        <v>53704.30569</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>25217.39153000001</v>
+        <v>140203.26981</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>72423.41882999998</v>
+        <v>85675.18891</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-66605.70122</v>
+        <v>-82.80515000000597</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>108680.12376</v>
+        <v>151176.00803</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>-41054.4637</v>
+        <v>150055.79804</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>181033.9062</v>
+        <v>24434.14260999998</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>38888.71177000005</v>
+        <v>118617.59229</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>1439.754569999993</v>
+        <v>250197.8040499999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1665378.3116</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>297804.14348</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>386060.483</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>14980.79253</v>
+        <v>9732.444439999999</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>9055.340890000001</v>
+        <v>3507.67373</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>18994.9907</v>
+        <v>14918.25546</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>25807.67875</v>
+        <v>21986.56817</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>27270.54884</v>
+        <v>23425.29319</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>46193.00732</v>
+        <v>36587.61878</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>35875.19001000001</v>
+        <v>35451.17683</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>39205.4678</v>
+        <v>36208.51488</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>87661.96104000001</v>
+        <v>78356.73037999999</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>110179.4924</v>
+        <v>100794.49654</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>116772.14884</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>105476.73015</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>146256.163</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-32797.2949</v>
+        <v>71052.70272</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-30962.57795</v>
+        <v>50196.63196</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>6222.400829999998</v>
+        <v>125285.01435</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>46615.74008</v>
+        <v>63688.62073999999</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-93876.25006000001</v>
+        <v>-23508.09834000001</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>62487.11643999999</v>
+        <v>114588.38925</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>-76929.65371000001</v>
+        <v>114604.62121</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>141828.4384</v>
+        <v>-11774.37227000001</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-48773.24926999999</v>
+        <v>40260.86190999993</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-108739.73783</v>
+        <v>149403.30751</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>1548606.16276</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>192327.41333</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>239804.32</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>51</v>
+        <v>21</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>22</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>